--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python bootcamp\project final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85326AC-FF0D-4B0F-B554-084C13C2F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE3B1B-7C78-4596-A77E-2956FAD9C5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{60E9C75D-594A-4FDE-9938-15AF2FEDD974}"/>
   </bookViews>
@@ -39,68 +39,68 @@
     <t>Neither</t>
   </si>
   <si>
-    <t xml:space="preserve">MacBook Air MRXV3 M3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacBook Pro 14 MRX33 2023 </t>
-  </si>
-  <si>
-    <t>Asus CREATOR Q540VJ</t>
-  </si>
-  <si>
-    <t>TUF Gaming FX507ZI</t>
-  </si>
-  <si>
-    <t>HP PRO X2 1012</t>
-  </si>
-  <si>
-    <t>Lenovo Thinkpad T490</t>
-  </si>
-  <si>
-    <t>Framework Laptop 16</t>
-  </si>
-  <si>
-    <t>MSI Titan 18ULTRA</t>
-  </si>
-  <si>
-    <t>MSI Cyborg 15 A12VF</t>
-  </si>
-  <si>
-    <t>MSI Vector GP78HX 13VI</t>
-  </si>
-  <si>
-    <t>LOQ 15IAX9</t>
-  </si>
-  <si>
-    <t>Legion Pro 5</t>
-  </si>
-  <si>
-    <t>Surface Laptop Go 2</t>
-  </si>
-  <si>
-    <t>Surface Studio 2</t>
-  </si>
-  <si>
-    <t>Vivobook 15</t>
-  </si>
-  <si>
-    <t>Dell G15 </t>
-  </si>
-  <si>
-    <t>Nitro V 15</t>
-  </si>
-  <si>
     <t>Aspire 3</t>
   </si>
   <si>
-    <t>Dell Precision 5520 </t>
+    <t> IdeaPad Slim 3-C</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>VivoBook X1502ZA</t>
+  </si>
+  <si>
+    <t>Vivobook GO L1504FA</t>
+  </si>
+  <si>
+    <t>Latitude 3410</t>
+  </si>
+  <si>
+    <t>Lenovo L349</t>
+  </si>
+  <si>
+    <t>Acer T572</t>
+  </si>
+  <si>
+    <t>MSI R80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lenovo IdeaPad Flex 5</t>
+  </si>
+  <si>
+    <t>HP X2 PRO</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 1</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3510</t>
+  </si>
+  <si>
+    <t>HP ZBOOK 15 U-G6</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Book1</t>
+  </si>
+  <si>
+    <t>L390 Yoga</t>
+  </si>
+  <si>
+    <t>fujitsu lifebook</t>
+  </si>
+  <si>
+    <t>U894T</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Iranyekan"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,15 +151,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,13 +199,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC8FA45D-3E2F-4D82-9922-50AC4AF07DCC}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC8FA45D-3E2F-4D82-9922-50AC4AF07DCC}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D21" xr:uid="{AC8FA45D-3E2F-4D82-9922-50AC4AF07DCC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{75BF5382-34E9-4783-9B31-E90CE78B703A}" name="Torob" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AE82A9C1-0A7C-4DB8-95DF-3D64B342A079}" name="Techno" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{50E68923-7038-4036-9495-2B345818C617}" name="Both" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DDD8A888-3610-4C84-B5EB-BEF69B96941E}" name="Neither" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{75BF5382-34E9-4783-9B31-E90CE78B703A}" name="Torob" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AE82A9C1-0A7C-4DB8-95DF-3D64B342A079}" name="Techno" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{50E68923-7038-4036-9495-2B345818C617}" name="Both" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DDD8A888-3610-4C84-B5EB-BEF69B96941E}" name="Neither" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E0F91A-8A91-4354-A3E4-978A792D251B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
@@ -514,177 +522,171 @@
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
